--- a/Modeling Yield Curves.xlsx
+++ b/Modeling Yield Curves.xlsx
@@ -5,7 +5,7 @@
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <workbookProtection lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Nelson Siegel Model" sheetId="1" r:id="rId1"/>
@@ -189,9 +189,6 @@
   </si>
   <si>
     <t>e)</t>
-  </si>
-  <si>
-    <t>Caliberation:</t>
   </si>
   <si>
     <t>05/27/2025</t>
@@ -597,13 +594,16 @@
   <si>
     <t>Interpolated Yield (%)</t>
   </si>
+  <si>
+    <t>Calibration:</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -859,37 +859,31 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -900,30 +894,24 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -942,6 +930,18 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1346,11 +1346,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1589716432"/>
-        <c:axId val="1589724048"/>
+        <c:axId val="-345044704"/>
+        <c:axId val="-345062656"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1589716432"/>
+        <c:axId val="-345044704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1461,7 +1461,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1589724048"/>
+        <c:crossAx val="-345062656"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1469,7 +1469,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1589724048"/>
+        <c:axId val="-345062656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1588,7 +1588,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1589716432"/>
+        <c:crossAx val="-345044704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2102,11 +2102,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1589742000"/>
-        <c:axId val="1589730032"/>
+        <c:axId val="-345044160"/>
+        <c:axId val="-345056128"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1589742000"/>
+        <c:axId val="-345044160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2193,7 +2193,7 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
@@ -2212,7 +2212,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1589730032"/>
+        <c:crossAx val="-345056128"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2220,7 +2220,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1589730032"/>
+        <c:axId val="-345056128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2339,7 +2339,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1589742000"/>
+        <c:crossAx val="-345044160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2756,11 +2756,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="86301536"/>
-        <c:axId val="86309696"/>
+        <c:axId val="-345050144"/>
+        <c:axId val="-345040352"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="86301536"/>
+        <c:axId val="-345050144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2871,7 +2871,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="86309696"/>
+        <c:crossAx val="-345040352"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2879,7 +2879,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="86309696"/>
+        <c:axId val="-345040352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2998,7 +2998,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="86301536"/>
+        <c:crossAx val="-345050144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3489,11 +3489,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="86296640"/>
-        <c:axId val="86314048"/>
+        <c:axId val="-345051776"/>
+        <c:axId val="-345034368"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="86296640"/>
+        <c:axId val="-345051776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3580,7 +3580,7 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
@@ -3599,7 +3599,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="86314048"/>
+        <c:crossAx val="-345034368"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3607,7 +3607,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="86314048"/>
+        <c:axId val="-345034368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3726,7 +3726,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="86296640"/>
+        <c:crossAx val="-345051776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4165,11 +4165,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1601775552"/>
-        <c:axId val="1601775008"/>
+        <c:axId val="-345059936"/>
+        <c:axId val="-345061568"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1601775552"/>
+        <c:axId val="-345059936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4256,7 +4256,7 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
@@ -4275,7 +4275,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1601775008"/>
+        <c:crossAx val="-345061568"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4283,7 +4283,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1601775008"/>
+        <c:axId val="-345061568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4402,7 +4402,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1601775552"/>
+        <c:crossAx val="-345059936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7772,7 +7772,9 @@
   </sheetPr>
   <dimension ref="B1:X43"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -7819,7 +7821,7 @@
         <v>1</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H2" s="10" t="s">
         <v>17</v>
@@ -7831,28 +7833,28 @@
         <v>19</v>
       </c>
       <c r="K2" s="10" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="L2" s="11" t="s">
         <v>21</v>
       </c>
       <c r="N2" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="O2" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="O2" s="10" t="s">
+      <c r="P2" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="P2" s="10" t="s">
+      <c r="Q2" s="11" t="s">
         <v>99</v>
-      </c>
-      <c r="Q2" s="11" t="s">
-        <v>100</v>
       </c>
       <c r="T2" s="9" t="s">
         <v>1</v>
       </c>
       <c r="U2" s="10" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="V2" s="10" t="s">
         <v>18</v>
@@ -7866,7 +7868,7 @@
     </row>
     <row r="3" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B3" s="15" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>3</v>
@@ -7881,7 +7883,7 @@
         <f>1/12</f>
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="H3" s="40">
+      <c r="H3" s="38">
         <v>4.37</v>
       </c>
       <c r="I3" s="29">
@@ -7901,15 +7903,15 @@
         <v>3.6436004087417789E-4</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="O3" s="23" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="P3" s="25">
         <v>1</v>
       </c>
-      <c r="Q3" s="49">
+      <c r="Q3" s="45">
         <v>4.3393573494511264</v>
       </c>
       <c r="T3" s="2" t="s">
@@ -7967,15 +7969,15 @@
         <v>2.3672339281644269E-5</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O4" s="23" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="P4" s="25">
         <v>1</v>
       </c>
-      <c r="Q4" s="49">
+      <c r="Q4" s="45">
         <v>0.15207152344394353</v>
       </c>
       <c r="T4" s="2" t="s">
@@ -8033,15 +8035,15 @@
         <v>1.3535898515401811E-3</v>
       </c>
       <c r="N5" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="O5" s="23" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="P5" s="25">
         <v>1</v>
       </c>
-      <c r="Q5" s="49">
+      <c r="Q5" s="45">
         <v>0</v>
       </c>
       <c r="T5" s="2" t="s">
@@ -8099,15 +8101,15 @@
         <v>7.7007709549910862E-3</v>
       </c>
       <c r="N6" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="O6" s="24" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="P6" s="26">
         <v>1</v>
       </c>
-      <c r="Q6" s="50">
+      <c r="Q6" s="46">
         <v>157.9354639498203</v>
       </c>
       <c r="T6" s="2" t="s">
@@ -8165,7 +8167,7 @@
         <v>2.6299555276674646E-3</v>
       </c>
       <c r="T7" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="U7" s="37">
         <f>5/12</f>
@@ -8218,7 +8220,7 @@
         <v>5.7753808495645126E-2</v>
       </c>
       <c r="N8" s="14" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="T8" s="2" t="s">
         <v>7</v>
@@ -8274,7 +8276,7 @@
         <v>0.14427750266218045</v>
       </c>
       <c r="T9" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="U9" s="37">
         <f>7/12</f>
@@ -8327,7 +8329,7 @@
         <v>0.15184918259318902</v>
       </c>
       <c r="T10" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="U10" s="37">
         <f>8/12</f>
@@ -8380,7 +8382,7 @@
         <v>7.2657161371277534E-2</v>
       </c>
       <c r="T11" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="U11" s="37">
         <f>9/12</f>
@@ -8433,7 +8435,7 @@
         <v>8.0093375720765112E-3</v>
       </c>
       <c r="T12" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="U12" s="37">
         <f>10/12</f>
@@ -8486,7 +8488,7 @@
         <v>1.2220498465424052E-2</v>
       </c>
       <c r="T13" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="U13" s="37">
         <f>11/12</f>
@@ -8538,13 +8540,13 @@
         <f t="shared" si="3"/>
         <v>0.34880187168028981</v>
       </c>
-      <c r="O14" s="39" t="s">
-        <v>112</v>
-      </c>
-      <c r="P14" s="39"/>
+      <c r="O14" s="57" t="s">
+        <v>111</v>
+      </c>
+      <c r="P14" s="57"/>
       <c r="Q14" s="20"/>
       <c r="T14" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="U14" s="2">
         <f>12/12</f>
@@ -8624,7 +8626,7 @@
         <v>1.1332381168484571</v>
       </c>
       <c r="M16" s="14" t="s">
-        <v>33</v>
+        <v>159</v>
       </c>
       <c r="T16" s="2" t="s">
         <v>10</v>
@@ -8646,17 +8648,17 @@
       </c>
     </row>
     <row r="17" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="38" t="s">
+      <c r="B17" s="56" t="s">
         <v>27</v>
       </c>
-      <c r="C17" s="38"/>
-      <c r="D17" s="38"/>
-      <c r="E17" s="38"/>
+      <c r="C17" s="56"/>
+      <c r="D17" s="56"/>
+      <c r="E17" s="56"/>
       <c r="M17" s="12" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="T17" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="U17" s="2">
         <v>4</v>
@@ -8695,10 +8697,10 @@
         <v>19</v>
       </c>
       <c r="K18" s="11" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="M18" s="12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="T18" s="2" t="s">
         <v>11</v>
@@ -8835,7 +8837,7 @@
         <v>4.3395178279989679</v>
       </c>
       <c r="T21" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="U21" s="2">
         <v>8</v>
@@ -8879,7 +8881,7 @@
         <v>4.3393930113506469</v>
       </c>
       <c r="T22" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="U22" s="2">
         <v>9</v>
@@ -8937,7 +8939,7 @@
     </row>
     <row r="24" spans="2:24" x14ac:dyDescent="0.25">
       <c r="T24" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="U24" s="2">
         <v>11</v>
@@ -8957,7 +8959,7 @@
     </row>
     <row r="25" spans="2:24" x14ac:dyDescent="0.25">
       <c r="T25" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="U25" s="2">
         <v>12</v>
@@ -8985,7 +8987,7 @@
       <c r="J26" s="20"/>
       <c r="K26" s="20"/>
       <c r="T26" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="U26" s="2">
         <v>13</v>
@@ -9005,7 +9007,7 @@
     </row>
     <row r="27" spans="2:24" x14ac:dyDescent="0.25">
       <c r="T27" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="U27" s="2">
         <v>14</v>
@@ -9025,7 +9027,7 @@
     </row>
     <row r="28" spans="2:24" x14ac:dyDescent="0.25">
       <c r="T28" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="U28" s="2">
         <v>15</v>
@@ -9045,7 +9047,7 @@
     </row>
     <row r="29" spans="2:24" x14ac:dyDescent="0.25">
       <c r="T29" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="U29" s="2">
         <v>16</v>
@@ -9065,7 +9067,7 @@
     </row>
     <row r="30" spans="2:24" x14ac:dyDescent="0.25">
       <c r="T30" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="U30" s="2">
         <v>17</v>
@@ -9085,7 +9087,7 @@
     </row>
     <row r="31" spans="2:24" x14ac:dyDescent="0.25">
       <c r="T31" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="U31" s="2">
         <v>18</v>
@@ -9105,7 +9107,7 @@
     </row>
     <row r="32" spans="2:24" x14ac:dyDescent="0.25">
       <c r="T32" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="U32" s="2">
         <v>19</v>
@@ -9125,7 +9127,7 @@
     </row>
     <row r="33" spans="20:24" x14ac:dyDescent="0.25">
       <c r="T33" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="U33" s="2">
         <v>20</v>
@@ -9145,7 +9147,7 @@
     </row>
     <row r="34" spans="20:24" x14ac:dyDescent="0.25">
       <c r="T34" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="U34" s="2">
         <v>21</v>
@@ -9165,7 +9167,7 @@
     </row>
     <row r="35" spans="20:24" x14ac:dyDescent="0.25">
       <c r="T35" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="U35" s="2">
         <v>22</v>
@@ -9185,7 +9187,7 @@
     </row>
     <row r="36" spans="20:24" x14ac:dyDescent="0.25">
       <c r="T36" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="U36" s="2">
         <v>23</v>
@@ -9205,7 +9207,7 @@
     </row>
     <row r="37" spans="20:24" x14ac:dyDescent="0.25">
       <c r="T37" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="U37" s="2">
         <v>24</v>
@@ -9225,7 +9227,7 @@
     </row>
     <row r="38" spans="20:24" x14ac:dyDescent="0.25">
       <c r="T38" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="U38" s="2">
         <v>25</v>
@@ -9245,7 +9247,7 @@
     </row>
     <row r="39" spans="20:24" x14ac:dyDescent="0.25">
       <c r="T39" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="U39" s="2">
         <v>26</v>
@@ -9285,7 +9287,7 @@
     </row>
     <row r="41" spans="20:24" x14ac:dyDescent="0.25">
       <c r="T41" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="U41" s="2">
         <v>28</v>
@@ -9305,7 +9307,7 @@
     </row>
     <row r="42" spans="20:24" x14ac:dyDescent="0.25">
       <c r="T42" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="U42" s="2">
         <v>29</v>
@@ -9344,7 +9346,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="wFhpqfivdno1YKnd5fQq+2mRBJEe5/29FEYEKE7RqxoDAn3gwBWT2yx75HYpiCJOgT1gGpaOrHbH32gaWBk2ig==" saltValue="NCl2DPmwpik6OF0mvhIkHA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="53ZfGaRNFJSzQjxIR6v23jxekeSFFdjB4UMSK8OjVQtCL+4x6pkrEXN6QhtI1DjD7ojRJ0QIEYungUxy6tpjxA==" saltValue="zD3r/ZzZ2EfPn1iz8vjHTA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="2">
     <mergeCell ref="B17:E17"/>
     <mergeCell ref="O14:P14"/>
@@ -9359,38 +9361,38 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:AB43"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AC34" sqref="AC34"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="1.5703125" style="42" customWidth="1"/>
-    <col min="2" max="2" width="12" style="42" customWidth="1"/>
-    <col min="3" max="3" width="11" style="42" customWidth="1"/>
-    <col min="4" max="4" width="14" style="42" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="42"/>
-    <col min="6" max="6" width="13.85546875" style="42" customWidth="1"/>
-    <col min="7" max="7" width="18.42578125" style="42" customWidth="1"/>
-    <col min="8" max="8" width="19.28515625" style="42" customWidth="1"/>
-    <col min="9" max="9" width="13.85546875" style="42" customWidth="1"/>
-    <col min="10" max="10" width="12.5703125" style="42" customWidth="1"/>
-    <col min="11" max="11" width="15.28515625" style="42" customWidth="1"/>
-    <col min="12" max="12" width="22.7109375" style="42" customWidth="1"/>
-    <col min="13" max="13" width="15.7109375" style="42" customWidth="1"/>
-    <col min="14" max="14" width="18.140625" style="42" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="19.140625" style="42" customWidth="1"/>
-    <col min="16" max="16" width="14.140625" style="42" customWidth="1"/>
-    <col min="17" max="17" width="18.140625" style="42" customWidth="1"/>
-    <col min="18" max="18" width="19.85546875" style="42" customWidth="1"/>
-    <col min="19" max="22" width="9.140625" style="42"/>
-    <col min="23" max="23" width="11.85546875" style="42" customWidth="1"/>
-    <col min="24" max="24" width="17.7109375" style="42" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="10.85546875" style="42" customWidth="1"/>
-    <col min="26" max="26" width="10.5703125" style="42" customWidth="1"/>
-    <col min="27" max="27" width="14" style="42" customWidth="1"/>
-    <col min="28" max="28" width="17.85546875" style="42" customWidth="1"/>
-    <col min="29" max="16384" width="9.140625" style="42"/>
+    <col min="1" max="1" width="1.5703125" style="40" customWidth="1"/>
+    <col min="2" max="2" width="12" style="40" customWidth="1"/>
+    <col min="3" max="3" width="11" style="40" customWidth="1"/>
+    <col min="4" max="4" width="14" style="40" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="40"/>
+    <col min="6" max="6" width="13.85546875" style="40" customWidth="1"/>
+    <col min="7" max="7" width="18.42578125" style="40" customWidth="1"/>
+    <col min="8" max="8" width="19.28515625" style="40" customWidth="1"/>
+    <col min="9" max="9" width="13.85546875" style="40" customWidth="1"/>
+    <col min="10" max="10" width="12.5703125" style="40" customWidth="1"/>
+    <col min="11" max="11" width="15.28515625" style="40" customWidth="1"/>
+    <col min="12" max="12" width="22.7109375" style="40" customWidth="1"/>
+    <col min="13" max="13" width="15.7109375" style="40" customWidth="1"/>
+    <col min="14" max="14" width="18.140625" style="40" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="19.140625" style="40" customWidth="1"/>
+    <col min="16" max="16" width="14.140625" style="40" customWidth="1"/>
+    <col min="17" max="17" width="18.140625" style="40" customWidth="1"/>
+    <col min="18" max="18" width="19.85546875" style="40" customWidth="1"/>
+    <col min="19" max="22" width="9.140625" style="40"/>
+    <col min="23" max="23" width="11.85546875" style="40" customWidth="1"/>
+    <col min="24" max="24" width="17.7109375" style="40" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="10.85546875" style="40" customWidth="1"/>
+    <col min="26" max="26" width="10.5703125" style="40" customWidth="1"/>
+    <col min="27" max="27" width="14" style="40" customWidth="1"/>
+    <col min="28" max="28" width="17.85546875" style="40" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="40"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:28" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -9408,7 +9410,7 @@
         <v>1</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H2" s="10" t="s">
         <v>17</v>
@@ -9420,31 +9422,31 @@
         <v>19</v>
       </c>
       <c r="K2" s="10" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="L2" s="10" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="M2" s="11" t="s">
         <v>21</v>
       </c>
       <c r="O2" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="P2" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="P2" s="10" t="s">
+      <c r="Q2" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="Q2" s="10" t="s">
+      <c r="R2" s="11" t="s">
         <v>99</v>
-      </c>
-      <c r="R2" s="11" t="s">
-        <v>100</v>
       </c>
       <c r="W2" s="9" t="s">
         <v>1</v>
       </c>
       <c r="X2" s="10" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="Y2" s="10" t="s">
         <v>18</v>
@@ -9453,7 +9455,7 @@
         <v>19</v>
       </c>
       <c r="AA2" s="10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="AB2" s="11" t="s">
         <v>20</v>
@@ -9461,7 +9463,7 @@
     </row>
     <row r="3" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B3" s="15" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>3</v>
@@ -9476,7 +9478,7 @@
         <f>1/12</f>
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="H3" s="40">
+      <c r="H3" s="38">
         <v>4.37</v>
       </c>
       <c r="I3" s="29">
@@ -9500,15 +9502,15 @@
         <v>7.1419202626139876E-4</v>
       </c>
       <c r="O3" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="P3" s="23" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="Q3" s="25">
         <v>1</v>
       </c>
-      <c r="R3" s="49">
+      <c r="R3" s="45">
         <v>4.3410171862255469</v>
       </c>
       <c r="W3" s="28" t="s">
@@ -9519,15 +9521,15 @@
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="Y3" s="29">
-        <f>((1-EXP(-$R$7*X3))/($R$7*X3))</f>
+        <f t="shared" ref="Y3:Y43" si="0">((1-EXP(-$R$7*X3))/($R$7*X3))</f>
         <v>0.58598158302573267</v>
       </c>
       <c r="Z3" s="29">
-        <f>(((1-EXP(-$R$7*X3))/($R$7*X3))-EXP(-$R$7*X3))</f>
+        <f t="shared" ref="Z3:Z43" si="1">(((1-EXP(-$R$7*X3))/($R$7*X3))-EXP(-$R$7*X3))</f>
         <v>0.28008874379005216</v>
       </c>
       <c r="AA3" s="29">
-        <f>(((1-EXP(-$R$8*X3))/($R$8*X3))-EXP(-$R$8*X3))</f>
+        <f t="shared" ref="AA3:AA43" si="2">(((1-EXP(-$R$8*X3))/($R$8*X3))-EXP(-$R$8*X3))</f>
         <v>3.4098852581261885E-2</v>
       </c>
       <c r="AB3" s="18">
@@ -9554,35 +9556,35 @@
         <v>4.3499999999999996</v>
       </c>
       <c r="I4" s="29">
-        <f t="shared" ref="I4:I15" si="0">((1-EXP(-$R$7*G4))/($R$7*G4))</f>
+        <f t="shared" ref="I4:I15" si="3">((1-EXP(-$R$7*G4))/($R$7*G4))</f>
         <v>0.38261457659864634</v>
       </c>
       <c r="J4" s="29">
-        <f t="shared" ref="J4:J15" si="1">(((1-EXP(-$R$7*G4))/($R$7*G4))-EXP(-$R$7*G4))</f>
+        <f t="shared" ref="J4:J15" si="4">(((1-EXP(-$R$7*G4))/($R$7*G4))-EXP(-$R$7*G4))</f>
         <v>0.28904414750298046</v>
       </c>
       <c r="K4" s="29">
-        <f t="shared" ref="K4:K15" si="2">(((1-EXP(-$R$8*G4))/($R$8*G4))-EXP(-$R$8*G4))</f>
+        <f t="shared" ref="K4:K15" si="5">(((1-EXP(-$R$8*G4))/($R$8*G4))-EXP(-$R$8*G4))</f>
         <v>6.5050358640486694E-2</v>
       </c>
       <c r="L4" s="18">
-        <f t="shared" ref="L4:L15" si="3">$R$3+($R$4*I4)+($R$5*J4)+($R$6*K4)</f>
+        <f t="shared" ref="L4:L15" si="6">$R$3+($R$4*I4)+($R$5*J4)+($R$6*K4)</f>
         <v>4.3424918280935243</v>
       </c>
       <c r="M4" s="32">
-        <f t="shared" ref="M4:M15" si="4">(H4-L4)^2</f>
+        <f t="shared" ref="M4:M14" si="7">(H4-L4)^2</f>
         <v>5.6372645377185648E-5</v>
       </c>
       <c r="O4" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="P4" s="23" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="Q4" s="25">
         <v>1</v>
       </c>
-      <c r="R4" s="49">
+      <c r="R4" s="45">
         <v>3.8541183691609732E-3</v>
       </c>
       <c r="W4" s="28" t="s">
@@ -9593,19 +9595,19 @@
         <v>0.16666666666666666</v>
       </c>
       <c r="Y4" s="29">
-        <f>((1-EXP(-$R$7*X4))/($R$7*X4))</f>
+        <f t="shared" si="0"/>
         <v>0.38261457659864634</v>
       </c>
       <c r="Z4" s="29">
-        <f>(((1-EXP(-$R$7*X4))/($R$7*X4))-EXP(-$R$7*X4))</f>
+        <f t="shared" si="1"/>
         <v>0.28904414750298046</v>
       </c>
       <c r="AA4" s="29">
-        <f>(((1-EXP(-$R$8*X4))/($R$8*X4))-EXP(-$R$8*X4))</f>
+        <f t="shared" si="2"/>
         <v>6.5050358640486694E-2</v>
       </c>
       <c r="AB4" s="18">
-        <f t="shared" ref="AB4:AB43" si="5">$R$3+($R$4*Y4)+($R$5*Z4)+($R$6*AA4)</f>
+        <f t="shared" ref="AB4:AB43" si="8">$R$3+($R$4*Y4)+($R$5*Z4)+($R$6*AA4)</f>
         <v>4.3424918280935243</v>
       </c>
     </row>
@@ -9628,35 +9630,35 @@
         <v>4.38</v>
       </c>
       <c r="I5" s="29">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0.27335323378772269</v>
       </c>
       <c r="J5" s="29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.24473070956314855</v>
       </c>
       <c r="K5" s="29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>9.309934026760347E-2</v>
       </c>
       <c r="L5" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>4.3420707219451575</v>
       </c>
       <c r="M5" s="32">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1.4386301337615465E-3</v>
       </c>
       <c r="O5" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="P5" s="23" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="Q5" s="25">
         <v>1</v>
       </c>
-      <c r="R5" s="49">
+      <c r="R5" s="45">
         <v>0</v>
       </c>
       <c r="W5" s="28" t="s">
@@ -9667,19 +9669,19 @@
         <v>0.25</v>
       </c>
       <c r="Y5" s="29">
-        <f>((1-EXP(-$R$7*X5))/($R$7*X5))</f>
+        <f t="shared" si="0"/>
         <v>0.27335323378772269</v>
       </c>
       <c r="Z5" s="29">
-        <f>(((1-EXP(-$R$7*X5))/($R$7*X5))-EXP(-$R$7*X5))</f>
+        <f t="shared" si="1"/>
         <v>0.24473070956314855</v>
       </c>
       <c r="AA5" s="29">
-        <f>(((1-EXP(-$R$8*X5))/($R$8*X5))-EXP(-$R$8*X5))</f>
+        <f t="shared" si="2"/>
         <v>9.309934026760347E-2</v>
       </c>
       <c r="AB5" s="18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>4.3420707219451575</v>
       </c>
     </row>
@@ -9706,31 +9708,31 @@
         <v>0.20920799335461909</v>
       </c>
       <c r="J6" s="29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.20045256815347207</v>
       </c>
       <c r="K6" s="29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.11847257377510634</v>
       </c>
       <c r="L6" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>4.3418234985957103</v>
       </c>
       <c r="M6" s="32">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>7.7750953999006596E-3</v>
       </c>
       <c r="O6" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="P6" s="23" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="Q6" s="25">
         <v>1</v>
       </c>
-      <c r="R6" s="49">
+      <c r="R6" s="45">
         <v>0</v>
       </c>
       <c r="W6" s="28" t="s">
@@ -9741,19 +9743,19 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="Y6" s="29">
-        <f>((1-EXP(-$R$7*X6))/($R$7*X6))</f>
+        <f t="shared" si="0"/>
         <v>0.20920799335461909</v>
       </c>
       <c r="Z6" s="29">
-        <f>(((1-EXP(-$R$7*X6))/($R$7*X6))-EXP(-$R$7*X6))</f>
+        <f t="shared" si="1"/>
         <v>0.20045256815347207</v>
       </c>
       <c r="AA6" s="29">
-        <f>(((1-EXP(-$R$8*X6))/($R$8*X6))-EXP(-$R$8*X6))</f>
+        <f t="shared" si="2"/>
         <v>0.11847257377510634</v>
       </c>
       <c r="AB6" s="18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>4.3418234985957103</v>
       </c>
     </row>
@@ -9776,58 +9778,58 @@
         <v>4.29</v>
       </c>
       <c r="I7" s="29">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0.14058864667183871</v>
       </c>
       <c r="J7" s="29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.13976939777885236</v>
       </c>
       <c r="K7" s="29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.1620163717500791</v>
       </c>
       <c r="L7" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>4.3415590315111805</v>
       </c>
       <c r="M7" s="32">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>2.6583337303709002E-3</v>
       </c>
       <c r="O7" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="P7" s="23" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="Q7" s="25">
         <v>1</v>
       </c>
-      <c r="R7" s="49">
+      <c r="R7" s="45">
         <v>14.214245243277661</v>
       </c>
       <c r="W7" s="28" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="X7" s="37">
         <f>5/12</f>
         <v>0.41666666666666669</v>
       </c>
       <c r="Y7" s="29">
-        <f>((1-EXP(-$R$7*X7))/($R$7*X7))</f>
+        <f t="shared" si="0"/>
         <v>0.16839249826758157</v>
       </c>
       <c r="Z7" s="29">
-        <f>(((1-EXP(-$R$7*X7))/($R$7*X7))-EXP(-$R$7*X7))</f>
+        <f t="shared" si="1"/>
         <v>0.16571427639408706</v>
       </c>
       <c r="AA7" s="29">
-        <f>(((1-EXP(-$R$8*X7))/($R$8*X7))-EXP(-$R$8*X7))</f>
+        <f t="shared" si="2"/>
         <v>0.14138008823159953</v>
       </c>
       <c r="AB7" s="18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>4.3416661908463485</v>
       </c>
     </row>
@@ -9849,35 +9851,35 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="I8" s="29">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>7.0351911882495538E-2</v>
       </c>
       <c r="J8" s="29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>7.0351240713746876E-2</v>
       </c>
       <c r="K8" s="29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.24733769564925834</v>
       </c>
       <c r="L8" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>4.3412883308214392</v>
       </c>
       <c r="M8" s="32">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>5.8220058590596445E-2</v>
       </c>
       <c r="O8" s="6" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="P8" s="24" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="Q8" s="26">
         <v>1</v>
       </c>
-      <c r="R8" s="50">
+      <c r="R8" s="46">
         <v>0.85821409729482501</v>
       </c>
       <c r="W8" s="28" t="s">
@@ -9888,19 +9890,19 @@
         <v>0.5</v>
       </c>
       <c r="Y8" s="29">
-        <f>((1-EXP(-$R$7*X8))/($R$7*X8))</f>
+        <f t="shared" si="0"/>
         <v>0.14058864667183871</v>
       </c>
       <c r="Z8" s="29">
-        <f>(((1-EXP(-$R$7*X8))/($R$7*X8))-EXP(-$R$7*X8))</f>
+        <f t="shared" si="1"/>
         <v>0.13976939777885236</v>
       </c>
       <c r="AA8" s="29">
-        <f>(((1-EXP(-$R$8*X8))/($R$8*X8))-EXP(-$R$8*X8))</f>
+        <f t="shared" si="2"/>
         <v>0.1620163717500791</v>
       </c>
       <c r="AB8" s="18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>4.3415590315111805</v>
       </c>
     </row>
@@ -9922,46 +9924,46 @@
         <v>3.96</v>
       </c>
       <c r="I9" s="29">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>3.5175979550250099E-2</v>
       </c>
       <c r="J9" s="29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>3.5175979549799632E-2</v>
       </c>
       <c r="K9" s="29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.29820015974488406</v>
       </c>
       <c r="L9" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>4.3411527586144851</v>
       </c>
       <c r="M9" s="32">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.145277425399432</v>
       </c>
       <c r="W9" s="28" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="X9" s="37">
         <f>7/12</f>
         <v>0.58333333333333337</v>
       </c>
       <c r="Y9" s="29">
-        <f>((1-EXP(-$R$7*X9))/($R$7*X9))</f>
+        <f t="shared" si="0"/>
         <v>0.12057313497060522</v>
       </c>
       <c r="Z9" s="29">
-        <f>(((1-EXP(-$R$7*X9))/($R$7*X9))-EXP(-$R$7*X9))</f>
+        <f t="shared" si="1"/>
         <v>0.12032253260068894</v>
       </c>
       <c r="AA9" s="29">
-        <f>(((1-EXP(-$R$8*X9))/($R$8*X9))-EXP(-$R$8*X9))</f>
+        <f t="shared" si="2"/>
         <v>0.18056149203366545</v>
       </c>
       <c r="AB9" s="18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>4.3414818893598648</v>
       </c>
     </row>
@@ -9983,51 +9985,51 @@
         <v>3.95</v>
       </c>
       <c r="I10" s="29">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>2.345065303351063E-2</v>
       </c>
       <c r="J10" s="29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>2.345065303351063E-2</v>
       </c>
       <c r="K10" s="29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.28263341006655512</v>
       </c>
       <c r="L10" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>4.3411075678181721</v>
       </c>
       <c r="M10" s="32">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.15296512960464595</v>
       </c>
       <c r="O10" s="27" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="P10" s="27"/>
-      <c r="Q10" s="48"/>
+      <c r="Q10" s="44"/>
       <c r="W10" s="28" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="X10" s="37">
         <f>8/12</f>
         <v>0.66666666666666663</v>
       </c>
       <c r="Y10" s="29">
-        <f>((1-EXP(-$R$7*X10))/($R$7*X10))</f>
+        <f t="shared" si="0"/>
         <v>0.10551984914595876</v>
       </c>
       <c r="Z10" s="29">
-        <f>(((1-EXP(-$R$7*X10))/($R$7*X10))-EXP(-$R$7*X10))</f>
+        <f t="shared" si="1"/>
         <v>0.10544319167550588</v>
       </c>
       <c r="AA10" s="29">
-        <f>(((1-EXP(-$R$8*X10))/($R$8*X10))-EXP(-$R$8*X10))</f>
+        <f t="shared" si="2"/>
         <v>0.1971821372253485</v>
       </c>
       <c r="AB10" s="18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>4.3414238722144516</v>
       </c>
     </row>
@@ -10049,46 +10051,46 @@
         <v>4.07</v>
       </c>
       <c r="I11" s="29">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>1.4070391820106377E-2</v>
       </c>
       <c r="J11" s="29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1.4070391820106377E-2</v>
       </c>
       <c r="K11" s="29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.21616141254093868</v>
       </c>
       <c r="L11" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>4.3410714151811218</v>
       </c>
       <c r="M11" s="32">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>7.3479712128295974E-2</v>
       </c>
       <c r="W11" s="28" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="X11" s="37">
         <f>9/12</f>
         <v>0.75</v>
       </c>
       <c r="Y11" s="29">
-        <f>((1-EXP(-$R$7*X11))/($R$7*X11))</f>
+        <f t="shared" si="0"/>
         <v>9.3800412559284077E-2</v>
       </c>
       <c r="Z11" s="29">
-        <f>(((1-EXP(-$R$7*X11))/($R$7*X11))-EXP(-$R$7*X11))</f>
+        <f t="shared" si="1"/>
         <v>9.3776963587998627E-2</v>
       </c>
       <c r="AA11" s="29">
-        <f>(((1-EXP(-$R$8*X11))/($R$8*X11))-EXP(-$R$8*X11))</f>
+        <f t="shared" si="2"/>
         <v>0.21203258268408254</v>
       </c>
       <c r="AB11" s="18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>4.3413787041186263</v>
       </c>
     </row>
@@ -10110,46 +10112,46 @@
         <v>4.25</v>
       </c>
       <c r="I12" s="29">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>1.0050279871504557E-2</v>
       </c>
       <c r="J12" s="29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1.0050279871504557E-2</v>
       </c>
       <c r="K12" s="29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.16358886841490472</v>
       </c>
       <c r="L12" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>4.3410559211938144</v>
       </c>
       <c r="M12" s="32">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>8.2911807844541479E-3</v>
       </c>
       <c r="W12" s="28" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="X12" s="37">
         <f>10/12</f>
         <v>0.83333333333333337</v>
       </c>
       <c r="Y12" s="29">
-        <f>((1-EXP(-$R$7*X12))/($R$7*X12))</f>
+        <f t="shared" si="0"/>
         <v>8.44217453698871E-2</v>
       </c>
       <c r="Z12" s="29">
-        <f>(((1-EXP(-$R$7*X12))/($R$7*X12))-EXP(-$R$7*X12))</f>
+        <f t="shared" si="1"/>
         <v>8.4414572497483437E-2</v>
       </c>
       <c r="AA12" s="29">
-        <f>(((1-EXP(-$R$8*X12))/($R$8*X12))-EXP(-$R$8*X12))</f>
+        <f t="shared" si="2"/>
         <v>0.22525558891497927</v>
       </c>
       <c r="AB12" s="18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>4.3413425576251337</v>
       </c>
     </row>
@@ -10171,46 +10173,46 @@
         <v>4.45</v>
       </c>
       <c r="I13" s="29">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>7.0351959100531884E-3</v>
       </c>
       <c r="J13" s="29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>7.0351959100531884E-3</v>
       </c>
       <c r="K13" s="29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.11631177894441952</v>
       </c>
       <c r="L13" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>4.3410443007033344</v>
       </c>
       <c r="M13" s="32">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1.1871344409225465E-2</v>
       </c>
       <c r="W13" s="28" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="X13" s="37">
         <f>11/12</f>
         <v>0.91666666666666663</v>
       </c>
       <c r="Y13" s="29">
-        <f>((1-EXP(-$R$7*X13))/($R$7*X13))</f>
+        <f t="shared" si="0"/>
         <v>7.6747423351817917E-2</v>
       </c>
       <c r="Z13" s="29">
-        <f>(((1-EXP(-$R$7*X13))/($R$7*X13))-EXP(-$R$7*X13))</f>
+        <f t="shared" si="1"/>
         <v>7.674522922151289E-2</v>
       </c>
       <c r="AA13" s="29">
-        <f>(((1-EXP(-$R$8*X13))/($R$8*X13))-EXP(-$R$8*X13))</f>
+        <f t="shared" si="2"/>
         <v>0.23698323551438089</v>
       </c>
       <c r="AB13" s="18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>4.3413129798796728</v>
       </c>
     </row>
@@ -10232,46 +10234,46 @@
         <v>4.93</v>
       </c>
       <c r="I14" s="29">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>3.5175979550265942E-3</v>
       </c>
       <c r="J14" s="29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>3.5175979550265942E-3</v>
       </c>
       <c r="K14" s="29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>5.8260483315675106E-2</v>
       </c>
       <c r="L14" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>4.3410307434644411</v>
       </c>
       <c r="M14" s="32">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.34688478514404869</v>
       </c>
       <c r="W14" s="28" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="X14" s="28">
         <f>12/12</f>
         <v>1</v>
       </c>
       <c r="Y14" s="29">
-        <f>((1-EXP(-$R$7*X14))/($R$7*X14))</f>
+        <f t="shared" si="0"/>
         <v>7.0351911882495538E-2</v>
       </c>
       <c r="Z14" s="29">
-        <f>(((1-EXP(-$R$7*X14))/($R$7*X14))-EXP(-$R$7*X14))</f>
+        <f t="shared" si="1"/>
         <v>7.0351240713746876E-2</v>
       </c>
       <c r="AA14" s="29">
-        <f>(((1-EXP(-$R$8*X14))/($R$8*X14))-EXP(-$R$8*X14))</f>
+        <f t="shared" si="2"/>
         <v>0.24733769564925834</v>
       </c>
       <c r="AB14" s="18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>4.3412883308214392</v>
       </c>
     </row>
@@ -10293,19 +10295,19 @@
         <v>4.91</v>
       </c>
       <c r="I15" s="31">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>2.3450653033510634E-3</v>
       </c>
       <c r="J15" s="31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>2.3450653033510634E-3</v>
       </c>
       <c r="K15" s="31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>3.8840346986298152E-2</v>
       </c>
       <c r="L15" s="30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>4.3410262243848097</v>
       </c>
       <c r="M15" s="33">
@@ -10319,19 +10321,19 @@
         <v>2</v>
       </c>
       <c r="Y15" s="29">
-        <f>((1-EXP(-$R$7*X15))/($R$7*X15))</f>
+        <f t="shared" si="0"/>
         <v>3.5175979550250099E-2</v>
       </c>
       <c r="Z15" s="29">
-        <f>(((1-EXP(-$R$7*X15))/($R$7*X15))-EXP(-$R$7*X15))</f>
+        <f t="shared" si="1"/>
         <v>3.5175979549799632E-2</v>
       </c>
       <c r="AA15" s="29">
-        <f>(((1-EXP(-$R$8*X15))/($R$8*X15))-EXP(-$R$8*X15))</f>
+        <f t="shared" si="2"/>
         <v>0.29820015974488406</v>
       </c>
       <c r="AB15" s="18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>4.3411527586144851</v>
       </c>
     </row>
@@ -10342,10 +10344,10 @@
       <c r="I16" s="4"/>
       <c r="J16" s="4"/>
       <c r="K16" s="4"/>
-      <c r="L16" s="43" t="s">
+      <c r="L16" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="M16" s="44">
+      <c r="M16" s="42">
         <f>SUM(M3:M15)</f>
         <v>1.1333634173341753</v>
       </c>
@@ -10356,66 +10358,66 @@
         <v>3</v>
       </c>
       <c r="Y16" s="29">
-        <f>((1-EXP(-$R$7*X16))/($R$7*X16))</f>
+        <f t="shared" si="0"/>
         <v>2.345065303351063E-2</v>
       </c>
       <c r="Z16" s="29">
-        <f>(((1-EXP(-$R$7*X16))/($R$7*X16))-EXP(-$R$7*X16))</f>
+        <f t="shared" si="1"/>
         <v>2.345065303351063E-2</v>
       </c>
       <c r="AA16" s="29">
-        <f>(((1-EXP(-$R$8*X16))/($R$8*X16))-EXP(-$R$8*X16))</f>
+        <f t="shared" si="2"/>
         <v>0.28263341006655512</v>
       </c>
       <c r="AB16" s="18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>4.3411075678181721</v>
       </c>
     </row>
     <row r="17" spans="2:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="45" t="s">
-        <v>150</v>
-      </c>
-      <c r="C17" s="45"/>
-      <c r="D17" s="45"/>
-      <c r="E17" s="45"/>
-      <c r="F17" s="45"/>
-      <c r="G17" s="51"/>
+      <c r="B17" s="58" t="s">
+        <v>149</v>
+      </c>
+      <c r="C17" s="58"/>
+      <c r="D17" s="58"/>
+      <c r="E17" s="58"/>
+      <c r="F17" s="58"/>
+      <c r="G17" s="47"/>
       <c r="H17" s="4"/>
       <c r="I17" s="4"/>
       <c r="J17" s="4"/>
       <c r="K17" s="4"/>
-      <c r="O17" s="39" t="s">
-        <v>147</v>
-      </c>
-      <c r="P17" s="39"/>
-      <c r="Q17" s="39"/>
+      <c r="O17" s="57" t="s">
+        <v>146</v>
+      </c>
+      <c r="P17" s="57"/>
+      <c r="Q17" s="57"/>
       <c r="R17" s="20"/>
       <c r="W17" s="28" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="X17" s="28">
         <v>4</v>
       </c>
       <c r="Y17" s="29">
-        <f>((1-EXP(-$R$7*X17))/($R$7*X17))</f>
+        <f t="shared" si="0"/>
         <v>1.7587989775132973E-2</v>
       </c>
       <c r="Z17" s="29">
-        <f>(((1-EXP(-$R$7*X17))/($R$7*X17))-EXP(-$R$7*X17))</f>
+        <f t="shared" si="1"/>
         <v>1.7587989775132973E-2</v>
       </c>
       <c r="AA17" s="29">
-        <f>(((1-EXP(-$R$8*X17))/($R$8*X17))-EXP(-$R$8*X17))</f>
+        <f t="shared" si="2"/>
         <v>0.24960054912177684</v>
       </c>
       <c r="AB17" s="18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>4.341084972420016</v>
       </c>
     </row>
     <row r="18" spans="2:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="46" t="s">
+      <c r="B18" s="43" t="s">
         <v>28</v>
       </c>
       <c r="C18" s="4" t="s">
@@ -10423,7 +10425,7 @@
       </c>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
-      <c r="F18" s="43"/>
+      <c r="F18" s="41"/>
       <c r="G18" s="9" t="s">
         <v>23</v>
       </c>
@@ -10437,10 +10439,10 @@
         <v>19</v>
       </c>
       <c r="K18" s="10" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="L18" s="11" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="W18" s="28" t="s">
         <v>11</v>
@@ -10449,24 +10451,24 @@
         <v>5</v>
       </c>
       <c r="Y18" s="29">
-        <f>((1-EXP(-$R$7*X18))/($R$7*X18))</f>
+        <f t="shared" si="0"/>
         <v>1.4070391820106377E-2</v>
       </c>
       <c r="Z18" s="29">
-        <f>(((1-EXP(-$R$7*X18))/($R$7*X18))-EXP(-$R$7*X18))</f>
+        <f t="shared" si="1"/>
         <v>1.4070391820106377E-2</v>
       </c>
       <c r="AA18" s="29">
-        <f>(((1-EXP(-$R$8*X18))/($R$8*X18))-EXP(-$R$8*X18))</f>
+        <f t="shared" si="2"/>
         <v>0.21616141254093868</v>
       </c>
       <c r="AB18" s="18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>4.3410714151811218</v>
       </c>
     </row>
     <row r="19" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B19" s="46" t="s">
+      <c r="B19" s="43" t="s">
         <v>29</v>
       </c>
       <c r="C19" s="4" t="s">
@@ -10499,7 +10501,7 @@
         <v>4.3428193620816922</v>
       </c>
       <c r="N19" s="14" t="s">
-        <v>33</v>
+        <v>159</v>
       </c>
       <c r="W19" s="28" t="s">
         <v>12</v>
@@ -10508,24 +10510,24 @@
         <v>6</v>
       </c>
       <c r="Y19" s="29">
-        <f>((1-EXP(-$R$7*X19))/($R$7*X19))</f>
+        <f t="shared" si="0"/>
         <v>1.1725326516755315E-2</v>
       </c>
       <c r="Z19" s="29">
-        <f>(((1-EXP(-$R$7*X19))/($R$7*X19))-EXP(-$R$7*X19))</f>
+        <f t="shared" si="1"/>
         <v>1.1725326516755315E-2</v>
       </c>
       <c r="AA19" s="29">
-        <f>(((1-EXP(-$R$8*X19))/($R$8*X19))-EXP(-$R$8*X19))</f>
+        <f t="shared" si="2"/>
         <v>0.18727111927736245</v>
       </c>
       <c r="AB19" s="18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>4.3410623770218599</v>
       </c>
     </row>
     <row r="20" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B20" s="46" t="s">
+      <c r="B20" s="43" t="s">
         <v>30</v>
       </c>
       <c r="C20" s="4" t="s">
@@ -10542,23 +10544,23 @@
         <v>0.20833333333333334</v>
       </c>
       <c r="I20" s="29">
-        <f t="shared" ref="I20:I23" si="6">((1-EXP(-$R$7*H20))/($R$7*H20))</f>
+        <f t="shared" ref="I20:I23" si="9">((1-EXP(-$R$7*H20))/($R$7*H20))</f>
         <v>0.32021345706188781</v>
       </c>
       <c r="J20" s="29">
-        <f t="shared" ref="J20:J23" si="7">(((1-EXP(-$R$7*H20))/($R$7*H20))-EXP(-$R$7*H20))</f>
+        <f t="shared" ref="J20:J23" si="10">(((1-EXP(-$R$7*H20))/($R$7*H20))-EXP(-$R$7*H20))</f>
         <v>0.26846191724426988</v>
       </c>
       <c r="K20" s="29">
-        <f t="shared" ref="K20:K23" si="8">(((1-EXP(-$R$8*H20))/($R$8*H20))-EXP(-$R$8*H20))</f>
+        <f t="shared" ref="K20:K23" si="11">(((1-EXP(-$R$8*H20))/($R$8*H20))-EXP(-$R$8*H20))</f>
         <v>7.9423084224755636E-2</v>
       </c>
       <c r="L20" s="17">
-        <f t="shared" ref="L20:L23" si="9">$R$3+($R$4*I20)+($R$5*J20)+($R$6*K20)</f>
+        <f t="shared" ref="L20:L23" si="12">$R$3+($R$4*I20)+($R$5*J20)+($R$6*K20)</f>
         <v>4.3422513267924616</v>
       </c>
       <c r="N20" s="12" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="W20" s="28" t="s">
         <v>13</v>
@@ -10567,24 +10569,24 @@
         <v>7</v>
       </c>
       <c r="Y20" s="29">
-        <f>((1-EXP(-$R$7*X20))/($R$7*X20))</f>
+        <f t="shared" si="0"/>
         <v>1.0050279871504557E-2</v>
       </c>
       <c r="Z20" s="29">
-        <f>(((1-EXP(-$R$7*X20))/($R$7*X20))-EXP(-$R$7*X20))</f>
+        <f t="shared" si="1"/>
         <v>1.0050279871504557E-2</v>
       </c>
       <c r="AA20" s="29">
-        <f>(((1-EXP(-$R$8*X20))/($R$8*X20))-EXP(-$R$8*X20))</f>
+        <f t="shared" si="2"/>
         <v>0.16358886841490472</v>
       </c>
       <c r="AB20" s="18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>4.3410559211938144</v>
       </c>
     </row>
     <row r="21" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B21" s="46" t="s">
+      <c r="B21" s="43" t="s">
         <v>31</v>
       </c>
       <c r="C21" s="4" t="s">
@@ -10600,49 +10602,49 @@
         <v>6</v>
       </c>
       <c r="I21" s="29">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.1725326516755315E-2</v>
       </c>
       <c r="J21" s="29">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.1725326516755315E-2</v>
       </c>
       <c r="K21" s="29">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0.18727111927736245</v>
       </c>
       <c r="L21" s="17">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>4.3410623770218599</v>
       </c>
       <c r="N21" s="12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="W21" s="28" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="X21" s="28">
         <v>8</v>
       </c>
       <c r="Y21" s="29">
-        <f>((1-EXP(-$R$7*X21))/($R$7*X21))</f>
+        <f t="shared" si="0"/>
         <v>8.7939948875664867E-3</v>
       </c>
       <c r="Z21" s="29">
-        <f>(((1-EXP(-$R$7*X21))/($R$7*X21))-EXP(-$R$7*X21))</f>
+        <f t="shared" si="1"/>
         <v>8.7939948875664867E-3</v>
       </c>
       <c r="AA21" s="29">
-        <f>(((1-EXP(-$R$8*X21))/($R$8*X21))-EXP(-$R$8*X21))</f>
+        <f t="shared" si="2"/>
         <v>0.14445645702710119</v>
       </c>
       <c r="AB21" s="18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>4.3410510793227814</v>
       </c>
     </row>
     <row r="22" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B22" s="46" t="s">
+      <c r="B22" s="43" t="s">
         <v>32</v>
       </c>
       <c r="C22" s="4" t="s">
@@ -10658,41 +10660,41 @@
         <v>27</v>
       </c>
       <c r="I22" s="29">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>2.6056281148345143E-3</v>
       </c>
       <c r="J22" s="29">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>2.6056281148345143E-3</v>
       </c>
       <c r="K22" s="29">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>4.3155941013334732E-2</v>
       </c>
       <c r="L22" s="17">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>4.3410272286247276</v>
       </c>
       <c r="W22" s="28" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="X22" s="28">
         <v>9</v>
       </c>
       <c r="Y22" s="29">
-        <f>((1-EXP(-$R$7*X22))/($R$7*X22))</f>
+        <f t="shared" si="0"/>
         <v>7.8168843445035434E-3</v>
       </c>
       <c r="Z22" s="29">
-        <f>(((1-EXP(-$R$7*X22))/($R$7*X22))-EXP(-$R$7*X22))</f>
+        <f t="shared" si="1"/>
         <v>7.8168843445035434E-3</v>
       </c>
       <c r="AA22" s="29">
-        <f>(((1-EXP(-$R$8*X22))/($R$8*X22))-EXP(-$R$8*X22))</f>
+        <f t="shared" si="2"/>
         <v>0.12896846182598048</v>
       </c>
       <c r="AB22" s="18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>4.3410473134230889</v>
       </c>
     </row>
@@ -10709,19 +10711,19 @@
         <v>30</v>
       </c>
       <c r="I23" s="31">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>2.3450653033510634E-3</v>
       </c>
       <c r="J23" s="31">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>2.3450653033510634E-3</v>
       </c>
       <c r="K23" s="31">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>3.8840346986298152E-2</v>
       </c>
       <c r="L23" s="35">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>4.3410262243848097</v>
       </c>
       <c r="W23" s="28" t="s">
@@ -10731,403 +10733,403 @@
         <v>10</v>
       </c>
       <c r="Y23" s="29">
-        <f>((1-EXP(-$R$7*X23))/($R$7*X23))</f>
+        <f t="shared" si="0"/>
         <v>7.0351959100531884E-3</v>
       </c>
       <c r="Z23" s="29">
-        <f>(((1-EXP(-$R$7*X23))/($R$7*X23))-EXP(-$R$7*X23))</f>
+        <f t="shared" si="1"/>
         <v>7.0351959100531884E-3</v>
       </c>
       <c r="AA23" s="29">
-        <f>(((1-EXP(-$R$8*X23))/($R$8*X23))-EXP(-$R$8*X23))</f>
+        <f t="shared" si="2"/>
         <v>0.11631177894441952</v>
       </c>
       <c r="AB23" s="18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>4.3410443007033344</v>
       </c>
     </row>
     <row r="24" spans="2:28" x14ac:dyDescent="0.25">
       <c r="W24" s="28" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="X24" s="28">
         <v>11</v>
       </c>
       <c r="Y24" s="29">
-        <f>((1-EXP(-$R$7*X24))/($R$7*X24))</f>
+        <f t="shared" si="0"/>
         <v>6.3956326455028994E-3</v>
       </c>
       <c r="Z24" s="29">
-        <f>(((1-EXP(-$R$7*X24))/($R$7*X24))-EXP(-$R$7*X24))</f>
+        <f t="shared" si="1"/>
         <v>6.3956326455028994E-3</v>
       </c>
       <c r="AA24" s="29">
-        <f>(((1-EXP(-$R$8*X24))/($R$8*X24))-EXP(-$R$8*X24))</f>
+        <f t="shared" si="2"/>
         <v>0.10584035065051543</v>
       </c>
       <c r="AB24" s="18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>4.3410418357508087</v>
       </c>
     </row>
     <row r="25" spans="2:28" x14ac:dyDescent="0.25">
       <c r="W25" s="28" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="X25" s="28">
         <v>12</v>
       </c>
       <c r="Y25" s="29">
-        <f>((1-EXP(-$R$7*X25))/($R$7*X25))</f>
+        <f t="shared" si="0"/>
         <v>5.8626632583776575E-3</v>
       </c>
       <c r="Z25" s="29">
-        <f>(((1-EXP(-$R$7*X25))/($R$7*X25))-EXP(-$R$7*X25))</f>
+        <f t="shared" si="1"/>
         <v>5.8626632583776575E-3</v>
       </c>
       <c r="AA25" s="29">
-        <f>(((1-EXP(-$R$8*X25))/($R$8*X25))-EXP(-$R$8*X25))</f>
+        <f t="shared" si="2"/>
         <v>9.7063915751009366E-2</v>
       </c>
       <c r="AB25" s="18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>4.341039781623703</v>
       </c>
     </row>
     <row r="26" spans="2:28" x14ac:dyDescent="0.25">
       <c r="W26" s="28" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="X26" s="28">
         <v>13</v>
       </c>
       <c r="Y26" s="29">
-        <f>((1-EXP(-$R$7*X26))/($R$7*X26))</f>
+        <f t="shared" si="0"/>
         <v>5.4116891615793765E-3</v>
       </c>
       <c r="Z26" s="29">
-        <f>(((1-EXP(-$R$7*X26))/($R$7*X26))-EXP(-$R$7*X26))</f>
+        <f t="shared" si="1"/>
         <v>5.4116891615793765E-3</v>
       </c>
       <c r="AA26" s="29">
-        <f>(((1-EXP(-$R$8*X26))/($R$8*X26))-EXP(-$R$8*X26))</f>
+        <f t="shared" si="2"/>
         <v>8.9616012109447626E-2</v>
       </c>
       <c r="AB26" s="18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>4.3410380435161526</v>
       </c>
     </row>
     <row r="27" spans="2:28" x14ac:dyDescent="0.25">
       <c r="W27" s="28" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="X27" s="28">
         <v>14</v>
       </c>
       <c r="Y27" s="29">
-        <f>((1-EXP(-$R$7*X27))/($R$7*X27))</f>
+        <f t="shared" si="0"/>
         <v>5.0251399357522783E-3</v>
       </c>
       <c r="Z27" s="29">
-        <f>(((1-EXP(-$R$7*X27))/($R$7*X27))-EXP(-$R$7*X27))</f>
+        <f t="shared" si="1"/>
         <v>5.0251399357522783E-3</v>
       </c>
       <c r="AA27" s="29">
-        <f>(((1-EXP(-$R$8*X27))/($R$8*X27))-EXP(-$R$8*X27))</f>
+        <f t="shared" si="2"/>
         <v>8.3222758465900812E-2</v>
       </c>
       <c r="AB27" s="18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>4.3410365537096807</v>
       </c>
     </row>
     <row r="28" spans="2:28" x14ac:dyDescent="0.25">
       <c r="W28" s="28" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="X28" s="28">
         <v>15</v>
       </c>
       <c r="Y28" s="29">
-        <f>((1-EXP(-$R$7*X28))/($R$7*X28))</f>
+        <f t="shared" si="0"/>
         <v>4.6901306067021267E-3</v>
       </c>
       <c r="Z28" s="29">
-        <f>(((1-EXP(-$R$7*X28))/($R$7*X28))-EXP(-$R$7*X28))</f>
+        <f t="shared" si="1"/>
         <v>4.6901306067021267E-3</v>
       </c>
       <c r="AA28" s="29">
-        <f>(((1-EXP(-$R$8*X28))/($R$8*X28))-EXP(-$R$8*X28))</f>
+        <f t="shared" si="2"/>
         <v>7.767792879357574E-2</v>
       </c>
       <c r="AB28" s="18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>4.3410352625440716</v>
       </c>
     </row>
     <row r="29" spans="2:28" x14ac:dyDescent="0.25">
       <c r="W29" s="28" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="X29" s="28">
         <v>16</v>
       </c>
       <c r="Y29" s="29">
-        <f>((1-EXP(-$R$7*X29))/($R$7*X29))</f>
+        <f t="shared" si="0"/>
         <v>4.3969974437832434E-3</v>
       </c>
       <c r="Z29" s="29">
-        <f>(((1-EXP(-$R$7*X29))/($R$7*X29))-EXP(-$R$7*X29))</f>
+        <f t="shared" si="1"/>
         <v>4.3969974437832434E-3</v>
       </c>
       <c r="AA29" s="29">
-        <f>(((1-EXP(-$R$8*X29))/($R$8*X29))-EXP(-$R$8*X29))</f>
+        <f t="shared" si="2"/>
         <v>7.2824483676770579E-2</v>
       </c>
       <c r="AB29" s="18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>4.3410341327741637</v>
       </c>
     </row>
     <row r="30" spans="2:28" x14ac:dyDescent="0.25">
       <c r="W30" s="28" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="X30" s="28">
         <v>17</v>
       </c>
       <c r="Y30" s="29">
-        <f>((1-EXP(-$R$7*X30))/($R$7*X30))</f>
+        <f t="shared" si="0"/>
         <v>4.1383505353254054E-3</v>
       </c>
       <c r="Z30" s="29">
-        <f>(((1-EXP(-$R$7*X30))/($R$7*X30))-EXP(-$R$7*X30))</f>
+        <f t="shared" si="1"/>
         <v>4.1383505353254054E-3</v>
       </c>
       <c r="AA30" s="29">
-        <f>(((1-EXP(-$R$8*X30))/($R$8*X30))-EXP(-$R$8*X30))</f>
+        <f t="shared" si="2"/>
         <v>6.8541296101260571E-2</v>
       </c>
       <c r="AB30" s="18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>4.3410331359183632</v>
       </c>
     </row>
     <row r="31" spans="2:28" x14ac:dyDescent="0.25">
       <c r="W31" s="28" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="X31" s="28">
         <v>18</v>
       </c>
       <c r="Y31" s="29">
-        <f>((1-EXP(-$R$7*X31))/($R$7*X31))</f>
+        <f t="shared" si="0"/>
         <v>3.9084421722517717E-3</v>
       </c>
       <c r="Z31" s="29">
-        <f>(((1-EXP(-$R$7*X31))/($R$7*X31))-EXP(-$R$7*X31))</f>
+        <f t="shared" si="1"/>
         <v>3.9084421722517717E-3</v>
       </c>
       <c r="AA31" s="29">
-        <f>(((1-EXP(-$R$8*X31))/($R$8*X31))-EXP(-$R$8*X31))</f>
+        <f t="shared" si="2"/>
         <v>6.4733703530615444E-2</v>
       </c>
       <c r="AB31" s="18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>4.3410322498243179</v>
       </c>
     </row>
     <row r="32" spans="2:28" x14ac:dyDescent="0.25">
       <c r="W32" s="28" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="X32" s="28">
         <v>19</v>
       </c>
       <c r="Y32" s="29">
-        <f>((1-EXP(-$R$7*X32))/($R$7*X32))</f>
+        <f t="shared" si="0"/>
         <v>3.7027346895016785E-3</v>
       </c>
       <c r="Z32" s="29">
-        <f>(((1-EXP(-$R$7*X32))/($R$7*X32))-EXP(-$R$7*X32))</f>
+        <f t="shared" si="1"/>
         <v>3.7027346895016785E-3</v>
       </c>
       <c r="AA32" s="29">
-        <f>(((1-EXP(-$R$8*X32))/($R$8*X32))-EXP(-$R$8*X32))</f>
+        <f t="shared" si="2"/>
         <v>6.132677572782521E-2</v>
       </c>
       <c r="AB32" s="18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>4.3410314570033295</v>
       </c>
     </row>
     <row r="33" spans="23:28" x14ac:dyDescent="0.25">
       <c r="W33" s="28" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="X33" s="28">
         <v>20</v>
       </c>
       <c r="Y33" s="29">
-        <f>((1-EXP(-$R$7*X33))/($R$7*X33))</f>
+        <f t="shared" si="0"/>
         <v>3.5175979550265942E-3</v>
       </c>
       <c r="Z33" s="29">
-        <f>(((1-EXP(-$R$7*X33))/($R$7*X33))-EXP(-$R$7*X33))</f>
+        <f t="shared" si="1"/>
         <v>3.5175979550265942E-3</v>
       </c>
       <c r="AA33" s="29">
-        <f>(((1-EXP(-$R$8*X33))/($R$8*X33))-EXP(-$R$8*X33))</f>
+        <f t="shared" si="2"/>
         <v>5.8260483315675106E-2</v>
       </c>
       <c r="AB33" s="18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>4.3410307434644411</v>
       </c>
     </row>
     <row r="34" spans="23:28" x14ac:dyDescent="0.25">
       <c r="W34" s="28" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="X34" s="28">
         <v>21</v>
       </c>
       <c r="Y34" s="29">
-        <f>((1-EXP(-$R$7*X34))/($R$7*X34))</f>
+        <f t="shared" si="0"/>
         <v>3.3500932905015188E-3</v>
       </c>
       <c r="Z34" s="29">
-        <f>(((1-EXP(-$R$7*X34))/($R$7*X34))-EXP(-$R$7*X34))</f>
+        <f t="shared" si="1"/>
         <v>3.3500932905015188E-3</v>
       </c>
       <c r="AA34" s="29">
-        <f>(((1-EXP(-$R$8*X34))/($R$8*X34))-EXP(-$R$8*X34))</f>
+        <f t="shared" si="2"/>
         <v>5.5486194272750353E-2</v>
       </c>
       <c r="AB34" s="18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>4.3410300978816361</v>
       </c>
     </row>
     <row r="35" spans="23:28" x14ac:dyDescent="0.25">
       <c r="W35" s="28" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="X35" s="28">
         <v>22</v>
       </c>
       <c r="Y35" s="29">
-        <f>((1-EXP(-$R$7*X35))/($R$7*X35))</f>
+        <f t="shared" si="0"/>
         <v>3.1978163227514497E-3</v>
       </c>
       <c r="Z35" s="29">
-        <f>(((1-EXP(-$R$7*X35))/($R$7*X35))-EXP(-$R$7*X35))</f>
+        <f t="shared" si="1"/>
         <v>3.1978163227514497E-3</v>
       </c>
       <c r="AA35" s="29">
-        <f>(((1-EXP(-$R$8*X35))/($R$8*X35))-EXP(-$R$8*X35))</f>
+        <f t="shared" si="2"/>
         <v>5.2964102889101874E-2</v>
       </c>
       <c r="AB35" s="18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>4.3410295109881778</v>
       </c>
     </row>
     <row r="36" spans="23:28" x14ac:dyDescent="0.25">
       <c r="W36" s="28" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="X36" s="28">
         <v>23</v>
       </c>
       <c r="Y36" s="29">
-        <f>((1-EXP(-$R$7*X36))/($R$7*X36))</f>
+        <f t="shared" si="0"/>
         <v>3.0587808304579083E-3</v>
       </c>
       <c r="Z36" s="29">
-        <f>(((1-EXP(-$R$7*X36))/($R$7*X36))-EXP(-$R$7*X36))</f>
+        <f t="shared" si="1"/>
         <v>3.0587808304579083E-3</v>
       </c>
       <c r="AA36" s="29">
-        <f>(((1-EXP(-$R$8*X36))/($R$8*X36))-EXP(-$R$8*X36))</f>
+        <f t="shared" si="2"/>
         <v>5.0661319353340464E-2</v>
       </c>
       <c r="AB36" s="18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>4.3410289751289328</v>
       </c>
     </row>
     <row r="37" spans="23:28" x14ac:dyDescent="0.25">
       <c r="W37" s="28" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="X37" s="28">
         <v>24</v>
       </c>
       <c r="Y37" s="29">
-        <f>((1-EXP(-$R$7*X37))/($R$7*X37))</f>
+        <f t="shared" si="0"/>
         <v>2.9313316291888288E-3</v>
       </c>
       <c r="Z37" s="29">
-        <f>(((1-EXP(-$R$7*X37))/($R$7*X37))-EXP(-$R$7*X37))</f>
+        <f t="shared" si="1"/>
         <v>2.9313316291888288E-3</v>
       </c>
       <c r="AA37" s="29">
-        <f>(((1-EXP(-$R$8*X37))/($R$8*X37))-EXP(-$R$8*X37))</f>
+        <f t="shared" si="2"/>
         <v>4.8550432551918252E-2</v>
       </c>
       <c r="AB37" s="18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>4.3410284839246254</v>
       </c>
     </row>
     <row r="38" spans="23:28" x14ac:dyDescent="0.25">
       <c r="W38" s="28" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="X38" s="28">
         <v>25</v>
       </c>
       <c r="Y38" s="29">
-        <f>((1-EXP(-$R$7*X38))/($R$7*X38))</f>
+        <f t="shared" si="0"/>
         <v>2.8140783640212756E-3</v>
       </c>
       <c r="Z38" s="29">
-        <f>(((1-EXP(-$R$7*X38))/($R$7*X38))-EXP(-$R$7*X38))</f>
+        <f t="shared" si="1"/>
         <v>2.8140783640212756E-3</v>
       </c>
       <c r="AA38" s="29">
-        <f>(((1-EXP(-$R$8*X38))/($R$8*X38))-EXP(-$R$8*X38))</f>
+        <f t="shared" si="2"/>
         <v>4.66084158884464E-2</v>
       </c>
       <c r="AB38" s="18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>4.3410280320166619</v>
       </c>
     </row>
     <row r="39" spans="23:28" x14ac:dyDescent="0.25">
       <c r="W39" s="28" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="X39" s="28">
         <v>26</v>
       </c>
       <c r="Y39" s="29">
-        <f>((1-EXP(-$R$7*X39))/($R$7*X39))</f>
+        <f t="shared" si="0"/>
         <v>2.7058445807896883E-3</v>
       </c>
       <c r="Z39" s="29">
-        <f>(((1-EXP(-$R$7*X39))/($R$7*X39))-EXP(-$R$7*X39))</f>
+        <f t="shared" si="1"/>
         <v>2.7058445807896883E-3</v>
       </c>
       <c r="AA39" s="29">
-        <f>(((1-EXP(-$R$8*X39))/($R$8*X39))-EXP(-$R$8*X39))</f>
+        <f t="shared" si="2"/>
         <v>4.4815784779081179E-2</v>
       </c>
       <c r="AB39" s="18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>4.3410276148708498</v>
       </c>
     </row>
@@ -11139,67 +11141,67 @@
         <v>27</v>
       </c>
       <c r="Y40" s="29">
-        <f>((1-EXP(-$R$7*X40))/($R$7*X40))</f>
+        <f t="shared" si="0"/>
         <v>2.6056281148345143E-3</v>
       </c>
       <c r="Z40" s="29">
-        <f>(((1-EXP(-$R$7*X40))/($R$7*X40))-EXP(-$R$7*X40))</f>
+        <f t="shared" si="1"/>
         <v>2.6056281148345143E-3</v>
       </c>
       <c r="AA40" s="29">
-        <f>(((1-EXP(-$R$8*X40))/($R$8*X40))-EXP(-$R$8*X40))</f>
+        <f t="shared" si="2"/>
         <v>4.3155941013334732E-2</v>
       </c>
       <c r="AB40" s="18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>4.3410272286247276</v>
       </c>
     </row>
     <row r="41" spans="23:28" x14ac:dyDescent="0.25">
       <c r="W41" s="28" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="X41" s="28">
         <v>28</v>
       </c>
       <c r="Y41" s="29">
-        <f>((1-EXP(-$R$7*X41))/($R$7*X41))</f>
+        <f t="shared" si="0"/>
         <v>2.5125699678761391E-3</v>
       </c>
       <c r="Z41" s="29">
-        <f>(((1-EXP(-$R$7*X41))/($R$7*X41))-EXP(-$R$7*X41))</f>
+        <f t="shared" si="1"/>
         <v>2.5125699678761391E-3</v>
       </c>
       <c r="AA41" s="29">
-        <f>(((1-EXP(-$R$8*X41))/($R$8*X41))-EXP(-$R$8*X41))</f>
+        <f t="shared" si="2"/>
         <v>4.1614657454486996E-2</v>
       </c>
       <c r="AB41" s="18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>4.3410268699676138</v>
       </c>
     </row>
     <row r="42" spans="23:28" x14ac:dyDescent="0.25">
       <c r="W42" s="28" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="X42" s="28">
         <v>29</v>
       </c>
       <c r="Y42" s="29">
-        <f>((1-EXP(-$R$7*X42))/($R$7*X42))</f>
+        <f t="shared" si="0"/>
         <v>2.4259296241562721E-3</v>
       </c>
       <c r="Z42" s="29">
-        <f>(((1-EXP(-$R$7*X42))/($R$7*X42))-EXP(-$R$7*X42))</f>
+        <f t="shared" si="1"/>
         <v>2.4259296241562721E-3</v>
       </c>
       <c r="AA42" s="29">
-        <f>(((1-EXP(-$R$8*X42))/($R$8*X42))-EXP(-$R$8*X42))</f>
+        <f t="shared" si="2"/>
         <v>4.0179669287091158E-2</v>
       </c>
       <c r="AB42" s="18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>4.3410265360454741</v>
       </c>
     </row>
@@ -11211,24 +11213,24 @@
         <v>30</v>
       </c>
       <c r="Y43" s="29">
-        <f>((1-EXP(-$R$7*X43))/($R$7*X43))</f>
+        <f t="shared" si="0"/>
         <v>2.3450653033510634E-3</v>
       </c>
       <c r="Z43" s="29">
-        <f>(((1-EXP(-$R$7*X43))/($R$7*X43))-EXP(-$R$7*X43))</f>
+        <f t="shared" si="1"/>
         <v>2.3450653033510634E-3</v>
       </c>
       <c r="AA43" s="29">
-        <f>(((1-EXP(-$R$8*X43))/($R$8*X43))-EXP(-$R$8*X43))</f>
+        <f t="shared" si="2"/>
         <v>3.8840346986298152E-2</v>
       </c>
       <c r="AB43" s="18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>4.3410262243848097</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="5HzuFvf6PLiphyYXfUq3832+BXl3BxfXvmhLEo2wUUEHt3us7GK7MwLkWVcMqNVpCTlxCDlgiOFC4g59mR0lCw==" saltValue="ZKKV3RUsI6TdtAZwt/suNQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="66YBugCjqGprACfxfuUtffaHZ1qpPgtR8jB0r8jgKixZTr9CVse+28AXNLPERsaFpRKONm6Vcq5E+qkG65TNKw==" saltValue="uMo8ALpeNG+sov6KUddaOQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="2">
     <mergeCell ref="O17:Q17"/>
     <mergeCell ref="B17:F17"/>
@@ -11242,7 +11244,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:S43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0"/>
+    <sheetView zoomScale="95" zoomScaleNormal="95" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -11277,30 +11279,30 @@
         <v>1</v>
       </c>
       <c r="M2" s="11" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="N2" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="O2" s="10" t="s">
         <v>152</v>
       </c>
-      <c r="O2" s="10" t="s">
+      <c r="P2" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="P2" s="10" t="s">
+      <c r="Q2" s="10" t="s">
         <v>154</v>
       </c>
-      <c r="Q2" s="10" t="s">
+      <c r="R2" s="10" t="s">
         <v>155</v>
       </c>
-      <c r="R2" s="10" t="s">
+      <c r="S2" s="11" t="s">
         <v>156</v>
-      </c>
-      <c r="S2" s="11" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="3" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B3" s="15" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>3</v>
@@ -11311,26 +11313,26 @@
       <c r="L3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M3" s="58">
+      <c r="M3" s="54">
         <v>4.37</v>
       </c>
       <c r="N3" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="O3" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="P3" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="Q3" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="R3" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="S3" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="4" spans="2:19" x14ac:dyDescent="0.25">
@@ -11344,26 +11346,26 @@
       <c r="L4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M4" s="57">
+      <c r="M4" s="53">
         <v>4.3499999999999996</v>
       </c>
       <c r="N4" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="O4" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="P4" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="Q4" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="R4" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="S4" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="5" spans="2:19" x14ac:dyDescent="0.25">
@@ -11377,26 +11379,26 @@
       <c r="L5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M5" s="57">
+      <c r="M5" s="53">
         <v>4.38</v>
       </c>
       <c r="N5" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="O5" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="P5" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="Q5" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="R5" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="S5" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="6" spans="2:19" x14ac:dyDescent="0.25">
@@ -11410,26 +11412,26 @@
       <c r="L6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="M6" s="57">
+      <c r="M6" s="53">
         <v>4.43</v>
       </c>
       <c r="N6" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="O6" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="P6" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="Q6" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="R6" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="S6" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="7" spans="2:19" x14ac:dyDescent="0.25">
@@ -11441,7 +11443,7 @@
         <v>4.29</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="M7" s="17">
         <f>Q7+(((O7-P7)*(S7-Q7))/(R7-P7))</f>
@@ -11483,26 +11485,26 @@
       <c r="L8" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="M8" s="57">
+      <c r="M8" s="53">
         <v>4.29</v>
       </c>
       <c r="N8" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="O8" s="29" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="P8" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="Q8" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="R8" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="S8" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="9" spans="2:19" x14ac:dyDescent="0.25">
@@ -11514,7 +11516,7 @@
         <v>3.96</v>
       </c>
       <c r="L9" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="M9" s="17">
         <f>Q9+(((O9-P9)*(S9-Q9))/(R9-P9))</f>
@@ -11553,7 +11555,7 @@
         <v>3.95</v>
       </c>
       <c r="L10" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="M10" s="17">
         <f>Q10+(((O10-P10)*(S10-Q10))/(R10-P10))</f>
@@ -11592,14 +11594,14 @@
         <v>4.07</v>
       </c>
       <c r="L11" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="M11" s="17">
-        <f t="shared" ref="M10:M13" si="3">Q11+(((O11-P11)*(S11-Q11))/(R11-P11))</f>
+        <f t="shared" ref="M11:M13" si="3">Q11+(((O11-P11)*(S11-Q11))/(R11-P11))</f>
         <v>4.1950000000000003</v>
       </c>
       <c r="N11" s="18">
-        <f t="shared" ref="N10:N13" si="4">M11</f>
+        <f t="shared" ref="N11:N13" si="4">M11</f>
         <v>4.1950000000000003</v>
       </c>
       <c r="O11" s="29">
@@ -11631,7 +11633,7 @@
         <v>4.25</v>
       </c>
       <c r="L12" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="M12" s="17">
         <f t="shared" si="3"/>
@@ -11670,7 +11672,7 @@
         <v>4.45</v>
       </c>
       <c r="L13" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="M13" s="17">
         <f t="shared" si="3"/>
@@ -11709,28 +11711,28 @@
         <v>4.93</v>
       </c>
       <c r="L14" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="M14" s="57">
+        <v>118</v>
+      </c>
+      <c r="M14" s="53">
         <v>4.0999999999999996</v>
       </c>
       <c r="N14" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="O14" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="P14" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="Q14" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="R14" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="S14" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="15" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -11744,63 +11746,63 @@
       <c r="L15" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="M15" s="57">
+      <c r="M15" s="53">
         <v>3.96</v>
       </c>
       <c r="N15" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="O15" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="P15" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="Q15" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="R15" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="S15" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="16" spans="2:19" x14ac:dyDescent="0.25">
       <c r="L16" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M16" s="57">
+      <c r="M16" s="53">
         <v>3.95</v>
       </c>
       <c r="N16" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="O16" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="P16" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="Q16" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="R16" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="S16" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="17" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B17" s="47" t="s">
-        <v>151</v>
-      </c>
-      <c r="C17" s="47"/>
-      <c r="D17" s="47"/>
-      <c r="E17" s="47"/>
+      <c r="B17" s="59" t="s">
+        <v>150</v>
+      </c>
+      <c r="C17" s="59"/>
+      <c r="D17" s="59"/>
+      <c r="E17" s="59"/>
       <c r="L17" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="M17" s="17">
         <f>Q17+(((O17-P17)*(S17-Q17))/(R17-P17))</f>
@@ -11832,27 +11834,27 @@
       <c r="L18" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M18" s="57">
+      <c r="M18" s="53">
         <f>D11</f>
         <v>4.07</v>
       </c>
       <c r="N18" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="O18" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="P18" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="Q18" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="R18" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="S18" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="19" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -11860,22 +11862,22 @@
         <v>1</v>
       </c>
       <c r="D19" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="E19" s="10" t="s">
         <v>152</v>
       </c>
-      <c r="E19" s="10" t="s">
+      <c r="F19" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="F19" s="10" t="s">
+      <c r="G19" s="10" t="s">
         <v>154</v>
       </c>
-      <c r="G19" s="10" t="s">
+      <c r="H19" s="10" t="s">
         <v>155</v>
       </c>
-      <c r="H19" s="10" t="s">
+      <c r="I19" s="11" t="s">
         <v>156</v>
-      </c>
-      <c r="I19" s="11" t="s">
-        <v>157</v>
       </c>
       <c r="L19" s="3" t="s">
         <v>12</v>
@@ -11917,50 +11919,50 @@
         <f>G20+(((E20-F20)*(I20-G20))/(H20-F20))</f>
         <v>4.3599999999999994</v>
       </c>
-      <c r="E20" s="52">
+      <c r="E20" s="48">
         <f>1.5/12</f>
         <v>0.125</v>
       </c>
-      <c r="F20" s="53">
+      <c r="F20" s="49">
         <f>1/12</f>
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="G20" s="52">
+      <c r="G20" s="48">
         <f>D3</f>
         <v>4.37</v>
       </c>
-      <c r="H20" s="53">
+      <c r="H20" s="49">
         <f>2/12</f>
         <v>0.16666666666666666</v>
       </c>
-      <c r="I20" s="54">
+      <c r="I20" s="50">
         <f>D4</f>
         <v>4.3499999999999996</v>
       </c>
       <c r="L20" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="M20" s="57">
+      <c r="M20" s="53">
         <f>D12</f>
         <v>4.25</v>
       </c>
       <c r="N20" s="18" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="O20" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="P20" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="Q20" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="R20" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="S20" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="21" spans="2:19" x14ac:dyDescent="0.25">
@@ -11974,31 +11976,31 @@
         <f t="shared" ref="D21:D23" si="5">G21+(((E21-F21)*(I21-G21))/(H21-F21))</f>
         <v>4.3650000000000002</v>
       </c>
-      <c r="E21" s="53">
+      <c r="E21" s="49">
         <f>2.5/12</f>
         <v>0.20833333333333334</v>
       </c>
-      <c r="F21" s="53">
+      <c r="F21" s="49">
         <f>2/12</f>
         <v>0.16666666666666666</v>
       </c>
-      <c r="G21" s="52">
+      <c r="G21" s="48">
         <f>D4</f>
         <v>4.3499999999999996</v>
       </c>
-      <c r="H21" s="52">
+      <c r="H21" s="48">
         <f>3/12</f>
         <v>0.25</v>
       </c>
-      <c r="I21" s="54">
+      <c r="I21" s="50">
         <f>D5</f>
         <v>4.38</v>
       </c>
       <c r="L21" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="M21" s="17">
-        <f t="shared" ref="M20:M42" si="6">Q21+(((O21-P21)*(S21-Q21))/(R21-P21))</f>
+        <f t="shared" ref="M21:M41" si="6">Q21+(((O21-P21)*(S21-Q21))/(R21-P21))</f>
         <v>4.3166666666666664</v>
       </c>
       <c r="N21" s="18">
@@ -12034,25 +12036,25 @@
         <f t="shared" si="5"/>
         <v>4.16</v>
       </c>
-      <c r="E22" s="52">
+      <c r="E22" s="48">
         <v>6</v>
       </c>
-      <c r="F22" s="52">
+      <c r="F22" s="48">
         <v>5</v>
       </c>
-      <c r="G22" s="52">
+      <c r="G22" s="48">
         <f>D11</f>
         <v>4.07</v>
       </c>
-      <c r="H22" s="52">
+      <c r="H22" s="48">
         <v>7</v>
       </c>
-      <c r="I22" s="54">
+      <c r="I22" s="50">
         <f>D12</f>
         <v>4.25</v>
       </c>
       <c r="L22" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="M22" s="17">
         <f t="shared" si="6"/>
@@ -12091,67 +12093,67 @@
         <f t="shared" si="5"/>
         <v>4.9160000000000004</v>
       </c>
-      <c r="E23" s="55">
+      <c r="E23" s="51">
         <v>27</v>
       </c>
-      <c r="F23" s="55">
+      <c r="F23" s="51">
         <v>20</v>
       </c>
-      <c r="G23" s="55">
+      <c r="G23" s="51">
         <f>D14</f>
         <v>4.93</v>
       </c>
-      <c r="H23" s="55">
+      <c r="H23" s="51">
         <v>30</v>
       </c>
-      <c r="I23" s="56">
+      <c r="I23" s="52">
         <f>D15</f>
         <v>4.91</v>
       </c>
       <c r="L23" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="M23" s="57">
+      <c r="M23" s="53">
         <f>D13</f>
         <v>4.45</v>
       </c>
       <c r="N23" s="18" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="O23" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="P23" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="Q23" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="R23" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="S23" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="24" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B24" s="41"/>
-      <c r="C24" s="41"/>
-      <c r="D24" s="41"/>
-      <c r="E24" s="41"/>
-      <c r="F24" s="41"/>
-      <c r="G24" s="41"/>
-      <c r="H24" s="41"/>
-      <c r="I24" s="41"/>
+      <c r="B24" s="39"/>
+      <c r="C24" s="39"/>
+      <c r="D24" s="39"/>
+      <c r="E24" s="39"/>
+      <c r="F24" s="39"/>
+      <c r="G24" s="39"/>
+      <c r="H24" s="39"/>
+      <c r="I24" s="39"/>
       <c r="L24" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="M24" s="17">
         <f t="shared" si="6"/>
         <v>4.4980000000000002</v>
       </c>
       <c r="N24" s="18">
-        <f t="shared" ref="N23:N42" si="7">M24</f>
+        <f t="shared" ref="N24:N42" si="7">M24</f>
         <v>4.4980000000000002</v>
       </c>
       <c r="O24" s="4">
@@ -12174,7 +12176,7 @@
     </row>
     <row r="25" spans="2:19" x14ac:dyDescent="0.25">
       <c r="L25" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="M25" s="17">
         <f t="shared" si="6"/>
@@ -12204,7 +12206,7 @@
     </row>
     <row r="26" spans="2:19" x14ac:dyDescent="0.25">
       <c r="L26" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="M26" s="17">
         <f t="shared" si="6"/>
@@ -12234,7 +12236,7 @@
     </row>
     <row r="27" spans="2:19" x14ac:dyDescent="0.25">
       <c r="L27" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="M27" s="17">
         <f t="shared" si="6"/>
@@ -12264,7 +12266,7 @@
     </row>
     <row r="28" spans="2:19" x14ac:dyDescent="0.25">
       <c r="L28" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="M28" s="17">
         <f t="shared" si="6"/>
@@ -12294,7 +12296,7 @@
     </row>
     <row r="29" spans="2:19" x14ac:dyDescent="0.25">
       <c r="L29" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="M29" s="17">
         <f t="shared" si="6"/>
@@ -12324,7 +12326,7 @@
     </row>
     <row r="30" spans="2:19" x14ac:dyDescent="0.25">
       <c r="L30" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="M30" s="17">
         <f t="shared" si="6"/>
@@ -12354,7 +12356,7 @@
     </row>
     <row r="31" spans="2:19" x14ac:dyDescent="0.25">
       <c r="L31" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="M31" s="17">
         <f t="shared" si="6"/>
@@ -12384,7 +12386,7 @@
     </row>
     <row r="32" spans="2:19" x14ac:dyDescent="0.25">
       <c r="L32" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="M32" s="17">
         <f t="shared" si="6"/>
@@ -12414,34 +12416,34 @@
     </row>
     <row r="33" spans="12:19" x14ac:dyDescent="0.25">
       <c r="L33" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="M33" s="57">
+        <v>94</v>
+      </c>
+      <c r="M33" s="53">
         <f>D14</f>
         <v>4.93</v>
       </c>
       <c r="N33" s="18" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="O33" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="P33" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="Q33" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="R33" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="S33" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="34" spans="12:19" x14ac:dyDescent="0.25">
       <c r="L34" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="M34" s="17">
         <f>Q34+(((O34-P34)*(S34-Q34))/(R34-P34))</f>
@@ -12471,7 +12473,7 @@
     </row>
     <row r="35" spans="12:19" x14ac:dyDescent="0.25">
       <c r="L35" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="M35" s="17">
         <f t="shared" si="6"/>
@@ -12501,7 +12503,7 @@
     </row>
     <row r="36" spans="12:19" x14ac:dyDescent="0.25">
       <c r="L36" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M36" s="17">
         <f t="shared" si="6"/>
@@ -12531,7 +12533,7 @@
     </row>
     <row r="37" spans="12:19" x14ac:dyDescent="0.25">
       <c r="L37" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="M37" s="17">
         <f t="shared" si="6"/>
@@ -12561,7 +12563,7 @@
     </row>
     <row r="38" spans="12:19" x14ac:dyDescent="0.25">
       <c r="L38" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="M38" s="17">
         <f t="shared" si="6"/>
@@ -12591,7 +12593,7 @@
     </row>
     <row r="39" spans="12:19" x14ac:dyDescent="0.25">
       <c r="L39" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="M39" s="17">
         <f t="shared" si="6"/>
@@ -12651,7 +12653,7 @@
     </row>
     <row r="41" spans="12:19" x14ac:dyDescent="0.25">
       <c r="L41" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="M41" s="17">
         <f t="shared" si="6"/>
@@ -12681,7 +12683,7 @@
     </row>
     <row r="42" spans="12:19" x14ac:dyDescent="0.25">
       <c r="L42" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="M42" s="17">
         <f>Q42+(((O42-P42)*(S42-Q42))/(R42-P42))</f>
@@ -12713,26 +12715,26 @@
       <c r="L43" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="M43" s="59">
+      <c r="M43" s="55">
         <v>4.91</v>
       </c>
       <c r="N43" s="7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="R43" s="7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="S43" s="8" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
   </sheetData>
@@ -12795,7 +12797,7 @@
         <v>14</v>
       </c>
       <c r="M1" s="22" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="N1" s="22" t="s">
         <v>16</v>
@@ -12803,7 +12805,7 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B2" s="1">
         <v>4.3499999999999996</v>
@@ -12847,7 +12849,7 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B3" s="1">
         <v>4.3499999999999996</v>
@@ -12891,7 +12893,7 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B4" s="1">
         <v>4.3600000000000003</v>
@@ -12935,7 +12937,7 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B5" s="1">
         <v>4.37</v>
@@ -12979,7 +12981,7 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B6" s="1">
         <v>4.3499999999999996</v>
@@ -13023,7 +13025,7 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B7" s="1">
         <v>4.3600000000000003</v>
@@ -13067,7 +13069,7 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B8" s="1">
         <v>4.37</v>
@@ -13111,7 +13113,7 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B9" s="1">
         <v>4.37</v>
@@ -13155,7 +13157,7 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B10" s="1">
         <v>4.37</v>
@@ -13199,7 +13201,7 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B11" s="1">
         <v>4.3899999999999997</v>
@@ -13243,7 +13245,7 @@
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B12" s="1">
         <v>4.3899999999999997</v>
@@ -13639,7 +13641,7 @@
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B21" s="1">
         <v>4.3499999999999996</v>
@@ -13683,7 +13685,7 @@
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B22" s="1">
         <v>4.3499999999999996</v>
@@ -13727,7 +13729,7 @@
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B23" s="1">
         <v>4.3499999999999996</v>
@@ -13771,7 +13773,7 @@
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B24" s="1">
         <v>4.34</v>
@@ -13815,7 +13817,7 @@
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B25" s="1">
         <v>4.34</v>
@@ -13859,7 +13861,7 @@
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B26" s="1">
         <v>4.33</v>
@@ -13903,7 +13905,7 @@
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B27" s="1">
         <v>4.33</v>
@@ -13947,7 +13949,7 @@
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B28" s="1">
         <v>4.3499999999999996</v>
@@ -13991,7 +13993,7 @@
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B29" s="1">
         <v>4.3600000000000003</v>
@@ -14035,7 +14037,7 @@
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B30" s="1">
         <v>4.3499999999999996</v>
@@ -14079,7 +14081,7 @@
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B31" s="1">
         <v>4.3499999999999996</v>
@@ -14123,7 +14125,7 @@
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B32" s="1">
         <v>4.34</v>
@@ -14563,7 +14565,7 @@
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B42" s="1">
         <v>4.38</v>
@@ -14607,7 +14609,7 @@
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B43" s="1">
         <v>4.38</v>
@@ -14651,7 +14653,7 @@
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B44" s="1">
         <v>4.37</v>
@@ -14695,7 +14697,7 @@
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B45" s="1">
         <v>4.3600000000000003</v>
@@ -14739,7 +14741,7 @@
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B46" s="1">
         <v>4.3600000000000003</v>
@@ -14783,7 +14785,7 @@
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B47" s="1">
         <v>4.3499999999999996</v>
@@ -14827,7 +14829,7 @@
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B48" s="1">
         <v>4.3600000000000003</v>
@@ -14871,7 +14873,7 @@
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B49" s="1">
         <v>4.3600000000000003</v>
@@ -14915,7 +14917,7 @@
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B50" s="1">
         <v>4.37</v>
@@ -14959,7 +14961,7 @@
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B51" s="1">
         <v>4.37</v>
@@ -15003,7 +15005,7 @@
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B52" s="1">
         <v>4.37</v>
@@ -15047,7 +15049,7 @@
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B53" s="1">
         <v>4.37</v>
@@ -15091,7 +15093,7 @@
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B54" s="1">
         <v>4.37</v>
@@ -15487,7 +15489,7 @@
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B63" s="1">
         <v>4.38</v>
@@ -15531,7 +15533,7 @@
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B64" s="1">
         <v>4.38</v>
@@ -15575,7 +15577,7 @@
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B65" s="1">
         <v>4.3499999999999996</v>
@@ -15619,7 +15621,7 @@
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B66" s="1">
         <v>4.34</v>
@@ -15663,7 +15665,7 @@
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B67" s="1">
         <v>4.3600000000000003</v>
@@ -15707,7 +15709,7 @@
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B68" s="1">
         <v>4.3600000000000003</v>
@@ -15751,7 +15753,7 @@
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B69" s="1">
         <v>4.37</v>
@@ -15795,7 +15797,7 @@
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B70" s="1">
         <v>4.38</v>
@@ -15839,7 +15841,7 @@
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B71" s="1">
         <v>4.38</v>
@@ -15883,7 +15885,7 @@
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B72" s="1">
         <v>4.37</v>
@@ -15927,7 +15929,7 @@
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B73" s="1">
         <v>4.37</v>
@@ -16323,7 +16325,7 @@
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B82" s="1">
         <v>4.37</v>
@@ -16367,7 +16369,7 @@
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B83" s="1">
         <v>4.37</v>
@@ -16411,7 +16413,7 @@
     </row>
     <row r="84" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B84" s="1">
         <v>4.43</v>
@@ -16455,7 +16457,7 @@
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B85" s="1">
         <v>4.4400000000000004</v>
@@ -16499,7 +16501,7 @@
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B86" s="1">
         <v>4.4400000000000004</v>
@@ -16543,7 +16545,7 @@
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B87" s="1">
         <v>4.45</v>
@@ -16587,7 +16589,7 @@
     </row>
     <row r="88" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B88" s="1">
         <v>4.45</v>
@@ -16631,7 +16633,7 @@
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B89" s="1">
         <v>4.42</v>
@@ -16675,7 +16677,7 @@
     </row>
     <row r="90" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B90" s="1">
         <v>4.42</v>
@@ -16719,7 +16721,7 @@
     </row>
     <row r="91" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B91" s="1">
         <v>4.43</v>
@@ -16763,7 +16765,7 @@
     </row>
     <row r="92" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B92" s="1">
         <v>4.43</v>
@@ -16807,7 +16809,7 @@
     </row>
     <row r="93" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B93" s="1">
         <v>4.4000000000000004</v>
@@ -16851,7 +16853,7 @@
     </row>
     <row r="94" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B94" s="1">
         <v>4.42</v>
@@ -16895,7 +16897,7 @@
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B95" s="1">
         <v>4.42</v>
